--- a/doubleChecking.xlsx
+++ b/doubleChecking.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T\Documents\GitHub\economicSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{68C35653-5ED8-44B5-BA2A-650A848A47F4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{802F0657-F79C-4365-BB3B-723D329DE993}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17625" xr2:uid="{04DCA3F4-8850-4A4D-B5C0-0943E771BF3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>population</t>
   </si>
@@ -99,9 +99,6 @@
     <t>desired shift</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>if savings &gt;0</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
   </si>
   <si>
     <t xml:space="preserve">gdp </t>
-  </si>
-  <si>
-    <t>SAME ISSUE</t>
   </si>
   <si>
     <t>savings_total</t>
@@ -478,7 +472,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,6 +480,7 @@
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -504,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1490000</v>
+        <v>48000</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -515,7 +510,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -532,7 +527,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>25000</v>
+        <v>200</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -552,7 +547,7 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -565,8 +560,8 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <f>B9*B12</f>
-        <v>1500000.0000000009</v>
+        <f>B9*E5</f>
+        <v>15000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -602,7 +597,7 @@
       </c>
       <c r="B12">
         <f>E5^B11</f>
-        <v>1000.0000000000007</v>
+        <v>31.622776601683803</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -610,8 +605,8 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <f>B2-B12*B9</f>
-        <v>-10000.000000000931</v>
+        <f>B12*B9-B2</f>
+        <v>-565.83509747429343</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -628,98 +623,100 @@
       </c>
       <c r="B16">
         <f>B4-(-1*B14)</f>
-        <v>14999.999999999069</v>
+        <v>-365.83509747429343</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H16">
         <f>B4+B14*B3</f>
-        <v>19999.999999999534</v>
+        <v>-82.917548737146717</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <f>B8</f>
-        <v>1500000.0000000009</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <f>B14*(1-B3)/B2*E2*(1+B5)</f>
-        <v>-7.5503355704705015</v>
+        <v>-13.261760097053752</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <f>B8</f>
-        <v>1500000.0000000009</v>
+        <v>15000</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
       </c>
       <c r="E19">
         <f>B8 + B16</f>
-        <v>1515000</v>
+        <v>14634.164902525707</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
       </c>
       <c r="H19">
         <f>E2+H18</f>
-        <v>1492.4496644295295</v>
+        <v>1486.7382399029461</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <f>E2*B14/B2*B5</f>
+        <v>-8.8411733980358349</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
       </c>
       <c r="E21">
         <f>B16/B2*E2*(1-B5)</f>
-        <v>7.55033557046933</v>
+        <v>-5.7161733980358349</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f>E2+B21</f>
+        <v>1491.1588266019642</v>
+      </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <f>E2-B16/B2*E2*(1-B5)</f>
-        <v>1492.4496644295307</v>
+        <f>E2+B16/B2*E2*(1-B5)</f>
+        <v>1494.2838266019642</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0</v>
